--- a/Hoja de trabajo Inventario.xlsx
+++ b/Hoja de trabajo Inventario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Descripción</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>No se puede reasignar equipo de computo</t>
+  </si>
+  <si>
+    <t>Visualización del historial de bajas de mobiliario</t>
+  </si>
+  <si>
+    <t>Visualización del historial de bajas de equipo de computo</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,11 +907,11 @@
         <v>Pendiente</v>
       </c>
       <c r="C15" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -941,41 +947,49 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>41460</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>41460</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,15 +1348,15 @@
       </c>
       <c r="C39" s="3">
         <f>SUM(C2:C22)</f>
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="D39" s="3">
         <f>SUM(D2:D38)</f>
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="E39" s="4">
         <f>(100% -((D39*100%)/C39))</f>
-        <v>0.60666666666666669</v>
+        <v>0.47894736842105268</v>
       </c>
     </row>
   </sheetData>
